--- a/data_quarter/zb/国民经济核算/国内生产总值环比增长速度.xlsx
+++ b/data_quarter/zb/国民经济核算/国内生产总值环比增长速度.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -453,27 +453,27 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -483,7 +483,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -493,27 +493,27 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -523,7 +523,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -533,27 +533,27 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -563,7 +563,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -573,7 +573,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -583,7 +583,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -593,7 +593,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -603,7 +603,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -613,27 +613,27 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -643,7 +643,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -653,27 +653,27 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -683,7 +683,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -693,27 +693,27 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -723,7 +723,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -733,27 +733,27 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -763,7 +763,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -773,27 +773,27 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -803,7 +803,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -813,27 +813,27 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.4</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -843,7 +843,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -853,27 +853,27 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B45" t="n">

--- a/data_quarter/zb/国民经济核算/国内生产总值环比增长速度.xlsx
+++ b/data_quarter/zb/国民经济核算/国内生产总值环比增长速度.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,27 +447,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="5">
@@ -487,27 +487,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="9">
@@ -527,27 +527,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="13">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -583,11 +583,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="18">
@@ -607,27 +607,27 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="22">
@@ -647,27 +647,27 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26">
@@ -693,21 +693,21 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30">
@@ -733,21 +733,21 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="33">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="34">
@@ -773,21 +773,21 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="37">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="38">
@@ -807,27 +807,27 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-10.5</v>
+        <v>-10.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>11.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.4</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="41">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="42">
@@ -847,27 +847,27 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="45">
